--- a/data/outputs/OR/57.xlsx
+++ b/data/outputs/OR/57.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ273"/>
+  <dimension ref="A1:BR273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -915,6 +920,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>4847320</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1122,6 +1132,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1321,6 +1332,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1532,6 +1544,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1747,6 +1760,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1962,6 +1976,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2177,6 +2192,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2388,6 +2404,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2607,6 +2624,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2806,6 +2824,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3009,6 +3028,11 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>14742308</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3228,6 +3252,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3431,6 +3456,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3642,6 +3668,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>4248723</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3849,6 +3880,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4060,6 +4092,11 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>21369243</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4275,6 +4312,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4478,6 +4516,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4693,6 +4732,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4896,6 +4936,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>35541458</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5111,6 +5156,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5322,6 +5368,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5533,6 +5580,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5736,6 +5784,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5939,6 +5988,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6138,6 +6188,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6345,6 +6396,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6556,6 +6608,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6763,6 +6816,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6962,6 +7016,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7161,6 +7216,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7368,6 +7424,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7571,6 +7628,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7782,6 +7840,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>64434130</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7989,6 +8052,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8196,6 +8260,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8407,6 +8472,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8622,6 +8688,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8837,6 +8904,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9052,6 +9120,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>4311997</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9255,6 +9328,11 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>3900365</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9466,6 +9544,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9681,6 +9760,11 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>4299778</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9892,6 +9976,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10103,6 +10188,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10322,6 +10408,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10533,6 +10620,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10740,6 +10828,11 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>3986999</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10951,6 +11044,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11158,6 +11252,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11357,6 +11452,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11564,6 +11660,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11783,6 +11880,11 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr">
+        <is>
+          <t>4077977</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11994,6 +12096,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12209,6 +12312,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12408,6 +12512,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12623,6 +12728,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12709,7 +12815,7 @@
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>Ouyang, Min/0000-0002-3190-4390; </t>
+          <t>Ouyang, Min/0000-0002-3190-4390;</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
@@ -12838,6 +12944,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13053,6 +13160,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13260,6 +13368,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13463,6 +13572,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13682,6 +13792,11 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr">
+        <is>
+          <t>4396736</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13897,6 +14012,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14100,6 +14216,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14299,6 +14416,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14518,6 +14636,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14725,6 +14844,11 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr">
+        <is>
+          <t>4965638</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14932,6 +15056,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15127,6 +15252,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15334,6 +15460,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15537,6 +15664,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15736,6 +15864,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15951,6 +16080,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16170,6 +16300,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16377,6 +16508,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16584,6 +16716,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16795,6 +16928,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17002,6 +17136,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17201,6 +17336,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17404,6 +17540,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17611,6 +17748,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17822,6 +17960,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18033,6 +18172,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18244,6 +18384,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18455,6 +18596,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18662,6 +18804,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18861,6 +19004,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19068,6 +19212,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19283,6 +19428,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19490,6 +19636,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19701,6 +19848,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19908,6 +20056,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20115,6 +20264,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20326,6 +20476,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20533,6 +20684,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20740,6 +20892,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20943,6 +21096,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21150,6 +21304,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21353,6 +21508,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21560,6 +21716,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21771,6 +21928,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21974,6 +22132,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22169,6 +22328,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22368,6 +22528,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22575,6 +22736,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22778,6 +22940,7 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -22993,6 +23156,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23208,6 +23372,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23423,6 +23588,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23622,6 +23788,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23821,6 +23988,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24032,6 +24200,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24247,6 +24416,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24333,7 +24503,7 @@
       </c>
       <c r="AA115" t="inlineStr">
         <is>
-          <t>Asadzadeh, Seyed Mohammad/0000-0002-3127-8211; </t>
+          <t>Asadzadeh, Seyed Mohammad/0000-0002-3127-8211;</t>
         </is>
       </c>
       <c r="AB115" t="inlineStr">
@@ -24462,6 +24632,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24669,6 +24840,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24884,6 +25056,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25087,6 +25260,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25294,6 +25468,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25493,6 +25668,7 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25696,6 +25872,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -25903,6 +26080,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26110,6 +26288,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26317,6 +26496,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -26528,6 +26708,11 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr">
+        <is>
+          <t>3985785</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -26747,6 +26932,7 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -26946,6 +27132,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27153,6 +27340,7 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -27364,6 +27552,7 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -27563,6 +27752,7 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -27778,6 +27968,7 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -27989,6 +28180,7 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28196,6 +28388,7 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -28399,6 +28592,11 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr">
+        <is>
+          <t>21229743</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -28618,6 +28816,11 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr">
+        <is>
+          <t>4705949</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -28829,6 +29032,7 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29028,6 +29232,7 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29243,6 +29448,7 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -29442,6 +29648,7 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -29649,6 +29856,7 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -29860,6 +30068,11 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr">
+        <is>
+          <t>4512744</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -30067,6 +30280,7 @@
         </is>
       </c>
       <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -30274,6 +30488,7 @@
         </is>
       </c>
       <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -30473,6 +30688,7 @@
         </is>
       </c>
       <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -30692,6 +30908,7 @@
         </is>
       </c>
       <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -30899,6 +31116,7 @@
         </is>
       </c>
       <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -31098,6 +31316,7 @@
         </is>
       </c>
       <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -31309,6 +31528,7 @@
         </is>
       </c>
       <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -31524,6 +31744,7 @@
         </is>
       </c>
       <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -31739,6 +31960,7 @@
         </is>
       </c>
       <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -31958,6 +32180,11 @@
         </is>
       </c>
       <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr">
+        <is>
+          <t>4505974</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -32165,6 +32392,7 @@
         </is>
       </c>
       <c r="BQ152" t="inlineStr"/>
+      <c r="BR152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -32372,6 +32600,7 @@
         </is>
       </c>
       <c r="BQ153" t="inlineStr"/>
+      <c r="BR153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -32575,6 +32804,7 @@
         </is>
       </c>
       <c r="BQ154" t="inlineStr"/>
+      <c r="BR154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -32782,6 +33012,7 @@
         </is>
       </c>
       <c r="BQ155" t="inlineStr"/>
+      <c r="BR155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -32989,6 +33220,7 @@
         </is>
       </c>
       <c r="BQ156" t="inlineStr"/>
+      <c r="BR156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -33192,6 +33424,7 @@
         </is>
       </c>
       <c r="BQ157" t="inlineStr"/>
+      <c r="BR157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -33275,7 +33508,7 @@
       <c r="AA158" t="inlineStr"/>
       <c r="AB158" t="inlineStr">
         <is>
-          <t> [61316705];  [51319040301];  [Z132014B002]</t>
+          <t>[61316705];  [51319040301];  [Z132014B002]</t>
         </is>
       </c>
       <c r="AC158" t="inlineStr">
@@ -33399,6 +33632,7 @@
         </is>
       </c>
       <c r="BQ158" t="inlineStr"/>
+      <c r="BR158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -33598,6 +33832,7 @@
         </is>
       </c>
       <c r="BQ159" t="inlineStr"/>
+      <c r="BR159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -33809,6 +34044,7 @@
         </is>
       </c>
       <c r="BQ160" t="inlineStr"/>
+      <c r="BR160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -34024,6 +34260,7 @@
         </is>
       </c>
       <c r="BQ161" t="inlineStr"/>
+      <c r="BR161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -34223,6 +34460,7 @@
         </is>
       </c>
       <c r="BQ162" t="inlineStr"/>
+      <c r="BR162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -34438,6 +34676,7 @@
         </is>
       </c>
       <c r="BQ163" t="inlineStr"/>
+      <c r="BR163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -34641,6 +34880,7 @@
         </is>
       </c>
       <c r="BQ164" t="inlineStr"/>
+      <c r="BR164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -34848,6 +35088,7 @@
         </is>
       </c>
       <c r="BQ165" t="inlineStr"/>
+      <c r="BR165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -35051,6 +35292,7 @@
         </is>
       </c>
       <c r="BQ166" t="inlineStr"/>
+      <c r="BR166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -35258,6 +35500,7 @@
         </is>
       </c>
       <c r="BQ167" t="inlineStr"/>
+      <c r="BR167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -35477,6 +35720,7 @@
         </is>
       </c>
       <c r="BQ168" t="inlineStr"/>
+      <c r="BR168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -35672,6 +35916,7 @@
         </is>
       </c>
       <c r="BQ169" t="inlineStr"/>
+      <c r="BR169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -35891,6 +36136,7 @@
         </is>
       </c>
       <c r="BQ170" t="inlineStr"/>
+      <c r="BR170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -35977,7 +36223,7 @@
       </c>
       <c r="AA171" t="inlineStr">
         <is>
-          <t>Yan, Xuedong/0000-0003-0120-9183; </t>
+          <t>Yan, Xuedong/0000-0003-0120-9183;</t>
         </is>
       </c>
       <c r="AB171" t="inlineStr">
@@ -36106,6 +36352,7 @@
         </is>
       </c>
       <c r="BQ171" t="inlineStr"/>
+      <c r="BR171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -36313,6 +36560,7 @@
         </is>
       </c>
       <c r="BQ172" t="inlineStr"/>
+      <c r="BR172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -36520,6 +36768,7 @@
         </is>
       </c>
       <c r="BQ173" t="inlineStr"/>
+      <c r="BR173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -36735,6 +36984,7 @@
         </is>
       </c>
       <c r="BQ174" t="inlineStr"/>
+      <c r="BR174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -36942,6 +37192,7 @@
         </is>
       </c>
       <c r="BQ175" t="inlineStr"/>
+      <c r="BR175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -37141,6 +37392,7 @@
         </is>
       </c>
       <c r="BQ176" t="inlineStr"/>
+      <c r="BR176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -37356,6 +37608,7 @@
         </is>
       </c>
       <c r="BQ177" t="inlineStr"/>
+      <c r="BR177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -37559,6 +37812,7 @@
         </is>
       </c>
       <c r="BQ178" t="inlineStr"/>
+      <c r="BR178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -37754,6 +38008,7 @@
         </is>
       </c>
       <c r="BQ179" t="inlineStr"/>
+      <c r="BR179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -37969,6 +38224,7 @@
         </is>
       </c>
       <c r="BQ180" t="inlineStr"/>
+      <c r="BR180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -38172,6 +38428,7 @@
         </is>
       </c>
       <c r="BQ181" t="inlineStr"/>
+      <c r="BR181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -38383,6 +38640,7 @@
         </is>
       </c>
       <c r="BQ182" t="inlineStr"/>
+      <c r="BR182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -38586,6 +38844,7 @@
         </is>
       </c>
       <c r="BQ183" t="inlineStr"/>
+      <c r="BR183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -38797,6 +39056,7 @@
         </is>
       </c>
       <c r="BQ184" t="inlineStr"/>
+      <c r="BR184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -39004,6 +39264,7 @@
         </is>
       </c>
       <c r="BQ185" t="inlineStr"/>
+      <c r="BR185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -39199,6 +39460,7 @@
         </is>
       </c>
       <c r="BQ186" t="inlineStr"/>
+      <c r="BR186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -39406,6 +39668,7 @@
         </is>
       </c>
       <c r="BQ187" t="inlineStr"/>
+      <c r="BR187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -39617,6 +39880,7 @@
         </is>
       </c>
       <c r="BQ188" t="inlineStr"/>
+      <c r="BR188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -39824,6 +40088,7 @@
         </is>
       </c>
       <c r="BQ189" t="inlineStr"/>
+      <c r="BR189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -40027,6 +40292,7 @@
         </is>
       </c>
       <c r="BQ190" t="inlineStr"/>
+      <c r="BR190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -40226,6 +40492,7 @@
         </is>
       </c>
       <c r="BQ191" t="inlineStr"/>
+      <c r="BR191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -40429,6 +40696,11 @@
         </is>
       </c>
       <c r="BQ192" t="inlineStr"/>
+      <c r="BR192" t="inlineStr">
+        <is>
+          <t>3106755</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -40636,6 +40908,11 @@
         </is>
       </c>
       <c r="BQ193" t="inlineStr"/>
+      <c r="BR193" t="inlineStr">
+        <is>
+          <t>1597743</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -40835,6 +41112,7 @@
         </is>
       </c>
       <c r="BQ194" t="inlineStr"/>
+      <c r="BR194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -41034,6 +41312,7 @@
         </is>
       </c>
       <c r="BQ195" t="inlineStr"/>
+      <c r="BR195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -41249,6 +41528,7 @@
         </is>
       </c>
       <c r="BQ196" t="inlineStr"/>
+      <c r="BR196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -41448,6 +41728,7 @@
         </is>
       </c>
       <c r="BQ197" t="inlineStr"/>
+      <c r="BR197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -41659,6 +41940,11 @@
         </is>
       </c>
       <c r="BQ198" t="inlineStr"/>
+      <c r="BR198" t="inlineStr">
+        <is>
+          <t>4396741</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -41866,6 +42152,7 @@
         </is>
       </c>
       <c r="BQ199" t="inlineStr"/>
+      <c r="BR199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -42073,6 +42360,11 @@
         </is>
       </c>
       <c r="BQ200" t="inlineStr"/>
+      <c r="BR200" t="inlineStr">
+        <is>
+          <t>4036231</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -42280,6 +42572,7 @@
         </is>
       </c>
       <c r="BQ201" t="inlineStr"/>
+      <c r="BR201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -42491,6 +42784,7 @@
         </is>
       </c>
       <c r="BQ202" t="inlineStr"/>
+      <c r="BR202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -42694,6 +42988,7 @@
         </is>
       </c>
       <c r="BQ203" t="inlineStr"/>
+      <c r="BR203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -42901,6 +43196,7 @@
         </is>
       </c>
       <c r="BQ204" t="inlineStr"/>
+      <c r="BR204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -43100,6 +43396,7 @@
         </is>
       </c>
       <c r="BQ205" t="inlineStr"/>
+      <c r="BR205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -43311,6 +43608,11 @@
         </is>
       </c>
       <c r="BQ206" t="inlineStr"/>
+      <c r="BR206" t="inlineStr">
+        <is>
+          <t>3103040</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -43510,6 +43812,7 @@
         </is>
       </c>
       <c r="BQ207" t="inlineStr"/>
+      <c r="BR207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -43717,6 +44020,7 @@
         </is>
       </c>
       <c r="BQ208" t="inlineStr"/>
+      <c r="BR208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -43920,6 +44224,7 @@
         </is>
       </c>
       <c r="BQ209" t="inlineStr"/>
+      <c r="BR209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -44119,6 +44424,7 @@
         </is>
       </c>
       <c r="BQ210" t="inlineStr"/>
+      <c r="BR210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -44334,6 +44640,7 @@
         </is>
       </c>
       <c r="BQ211" t="inlineStr"/>
+      <c r="BR211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -44545,6 +44852,7 @@
         </is>
       </c>
       <c r="BQ212" t="inlineStr"/>
+      <c r="BR212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -44756,6 +45064,7 @@
         </is>
       </c>
       <c r="BQ213" t="inlineStr"/>
+      <c r="BR213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -44967,6 +45276,7 @@
         </is>
       </c>
       <c r="BQ214" t="inlineStr"/>
+      <c r="BR214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -45174,6 +45484,7 @@
         </is>
       </c>
       <c r="BQ215" t="inlineStr"/>
+      <c r="BR215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -45377,6 +45688,7 @@
         </is>
       </c>
       <c r="BQ216" t="inlineStr"/>
+      <c r="BR216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -45580,6 +45892,7 @@
         </is>
       </c>
       <c r="BQ217" t="inlineStr"/>
+      <c r="BR217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -45795,6 +46108,7 @@
         </is>
       </c>
       <c r="BQ218" t="inlineStr"/>
+      <c r="BR218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -46002,6 +46316,7 @@
         </is>
       </c>
       <c r="BQ219" t="inlineStr"/>
+      <c r="BR219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -46197,6 +46512,7 @@
         </is>
       </c>
       <c r="BQ220" t="inlineStr"/>
+      <c r="BR220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -46404,6 +46720,7 @@
         </is>
       </c>
       <c r="BQ221" t="inlineStr"/>
+      <c r="BR221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -46599,6 +46916,7 @@
         </is>
       </c>
       <c r="BQ222" t="inlineStr"/>
+      <c r="BR222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -46806,6 +47124,7 @@
         </is>
       </c>
       <c r="BQ223" t="inlineStr"/>
+      <c r="BR223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -47013,6 +47332,7 @@
         </is>
       </c>
       <c r="BQ224" t="inlineStr"/>
+      <c r="BR224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -47212,6 +47532,7 @@
         </is>
       </c>
       <c r="BQ225" t="inlineStr"/>
+      <c r="BR225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -47415,6 +47736,7 @@
         </is>
       </c>
       <c r="BQ226" t="inlineStr"/>
+      <c r="BR226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -47622,6 +47944,7 @@
         </is>
       </c>
       <c r="BQ227" t="inlineStr"/>
+      <c r="BR227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -47829,6 +48152,7 @@
         </is>
       </c>
       <c r="BQ228" t="inlineStr"/>
+      <c r="BR228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -48028,6 +48352,11 @@
         </is>
       </c>
       <c r="BQ229" t="inlineStr"/>
+      <c r="BR229" t="inlineStr">
+        <is>
+          <t>11859622</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -48223,6 +48552,7 @@
         </is>
       </c>
       <c r="BQ230" t="inlineStr"/>
+      <c r="BR230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -48434,6 +48764,7 @@
         </is>
       </c>
       <c r="BQ231" t="inlineStr"/>
+      <c r="BR231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -48641,6 +48972,7 @@
         </is>
       </c>
       <c r="BQ232" t="inlineStr"/>
+      <c r="BR232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -48836,6 +49168,7 @@
         </is>
       </c>
       <c r="BQ233" t="inlineStr"/>
+      <c r="BR233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -49043,6 +49376,7 @@
         </is>
       </c>
       <c r="BQ234" t="inlineStr"/>
+      <c r="BR234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -49250,6 +49584,7 @@
         </is>
       </c>
       <c r="BQ235" t="inlineStr"/>
+      <c r="BR235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -49469,6 +49804,7 @@
         </is>
       </c>
       <c r="BQ236" t="inlineStr"/>
+      <c r="BR236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -49668,6 +50004,7 @@
         </is>
       </c>
       <c r="BQ237" t="inlineStr"/>
+      <c r="BR237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -49875,6 +50212,7 @@
         </is>
       </c>
       <c r="BQ238" t="inlineStr"/>
+      <c r="BR238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -50074,6 +50412,7 @@
         </is>
       </c>
       <c r="BQ239" t="inlineStr"/>
+      <c r="BR239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -50269,6 +50608,7 @@
         </is>
       </c>
       <c r="BQ240" t="inlineStr"/>
+      <c r="BR240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -50476,6 +50816,7 @@
         </is>
       </c>
       <c r="BQ241" t="inlineStr"/>
+      <c r="BR241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -50691,6 +51032,7 @@
         </is>
       </c>
       <c r="BQ242" t="inlineStr"/>
+      <c r="BR242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -50898,6 +51240,7 @@
         </is>
       </c>
       <c r="BQ243" t="inlineStr"/>
+      <c r="BR243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -51105,6 +51448,7 @@
         </is>
       </c>
       <c r="BQ244" t="inlineStr"/>
+      <c r="BR244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -51312,6 +51656,7 @@
         </is>
       </c>
       <c r="BQ245" t="inlineStr"/>
+      <c r="BR245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -51511,6 +51856,7 @@
         </is>
       </c>
       <c r="BQ246" t="inlineStr"/>
+      <c r="BR246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -51714,6 +52060,7 @@
         </is>
       </c>
       <c r="BQ247" t="inlineStr"/>
+      <c r="BR247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -51933,6 +52280,7 @@
         </is>
       </c>
       <c r="BQ248" t="inlineStr"/>
+      <c r="BR248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -52019,7 +52367,7 @@
       </c>
       <c r="AA249" t="inlineStr">
         <is>
-          <t>Potempski, Slawomir B/0000-0002-3877-5464; </t>
+          <t>Potempski, Slawomir B/0000-0002-3877-5464;</t>
         </is>
       </c>
       <c r="AB249" t="inlineStr">
@@ -52148,6 +52496,7 @@
         </is>
       </c>
       <c r="BQ249" t="inlineStr"/>
+      <c r="BR249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -52355,6 +52704,7 @@
         </is>
       </c>
       <c r="BQ250" t="inlineStr"/>
+      <c r="BR250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -52550,6 +52900,7 @@
         </is>
       </c>
       <c r="BQ251" t="inlineStr"/>
+      <c r="BR251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -52761,6 +53112,7 @@
         </is>
       </c>
       <c r="BQ252" t="inlineStr"/>
+      <c r="BR252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -52964,6 +53316,7 @@
         </is>
       </c>
       <c r="BQ253" t="inlineStr"/>
+      <c r="BR253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -53171,6 +53524,7 @@
         </is>
       </c>
       <c r="BQ254" t="inlineStr"/>
+      <c r="BR254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -53370,6 +53724,7 @@
         </is>
       </c>
       <c r="BQ255" t="inlineStr"/>
+      <c r="BR255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -53577,6 +53932,7 @@
         </is>
       </c>
       <c r="BQ256" t="inlineStr"/>
+      <c r="BR256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -53788,6 +54144,7 @@
         </is>
       </c>
       <c r="BQ257" t="inlineStr"/>
+      <c r="BR257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -53987,6 +54344,7 @@
         </is>
       </c>
       <c r="BQ258" t="inlineStr"/>
+      <c r="BR258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -54194,6 +54552,7 @@
         </is>
       </c>
       <c r="BQ259" t="inlineStr"/>
+      <c r="BR259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -54401,6 +54760,7 @@
         </is>
       </c>
       <c r="BQ260" t="inlineStr"/>
+      <c r="BR260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -54612,6 +54972,7 @@
         </is>
       </c>
       <c r="BQ261" t="inlineStr"/>
+      <c r="BR261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -54827,6 +55188,7 @@
         </is>
       </c>
       <c r="BQ262" t="inlineStr"/>
+      <c r="BR262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -55038,6 +55400,7 @@
         </is>
       </c>
       <c r="BQ263" t="inlineStr"/>
+      <c r="BR263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -55237,6 +55600,7 @@
         </is>
       </c>
       <c r="BQ264" t="inlineStr"/>
+      <c r="BR264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -55440,6 +55804,7 @@
         </is>
       </c>
       <c r="BQ265" t="inlineStr"/>
+      <c r="BR265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -55623,6 +55988,7 @@
         </is>
       </c>
       <c r="BQ266" t="inlineStr"/>
+      <c r="BR266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -55838,6 +56204,7 @@
         </is>
       </c>
       <c r="BQ267" t="inlineStr"/>
+      <c r="BR267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -56053,6 +56420,7 @@
         </is>
       </c>
       <c r="BQ268" t="inlineStr"/>
+      <c r="BR268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -56260,6 +56628,7 @@
         </is>
       </c>
       <c r="BQ269" t="inlineStr"/>
+      <c r="BR269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -56463,6 +56832,7 @@
         </is>
       </c>
       <c r="BQ270" t="inlineStr"/>
+      <c r="BR270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -56670,6 +57040,7 @@
         </is>
       </c>
       <c r="BQ271" t="inlineStr"/>
+      <c r="BR271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -56881,6 +57252,7 @@
         </is>
       </c>
       <c r="BQ272" t="inlineStr"/>
+      <c r="BR272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -57076,6 +57448,7 @@
         </is>
       </c>
       <c r="BQ273" t="inlineStr"/>
+      <c r="BR273" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
